--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489506.3307527589</v>
+        <v>-428693.6145417524</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890403</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9209379.100511272</v>
+        <v>9213901.739125988</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -677,7 +677,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>145.6066928277075</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>161.4860826892251</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>113.5770391806061</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>96.93113101251414</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>235.467328936988</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>54.05824973581233</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.883353310223032</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>27.97358346682135</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>245.3090525200529</v>
+        <v>59.25664966154027</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>66.41949375569051</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>82.62483121292166</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>38.87239953191824</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>50.45225306535512</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>43.48898701015912</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>172.5956338268798</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>114.1905507831669</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>157.8824880649894</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.3202190170928</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>394.0226158731409</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>152.5168019860611</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340019</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>49.04469232544393</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>197.4185273403009</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2239,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>115.7595572937995</v>
       </c>
       <c r="D22" t="n">
-        <v>20.56754178381338</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170526</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.68074767021328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>13.01313443288583</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.68259506970357</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385522</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999603</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083125</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972015</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131894</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147859</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828703</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311175</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790297</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755934</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760549</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854133</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629786</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.262435706384</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832447</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516989</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215089</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903942</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316717</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>163.251380417763</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443322</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475443184</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297302</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>9.515040001583451</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762361</v>
+        <v>145.9603519348849</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772309</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593273</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681754</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.617537289473</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398233</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989344</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999603</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083125</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972015</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131894</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147859</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828703</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311175</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790297</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755934</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760549</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854133</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043291</v>
+        <v>389.1182969629786</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.262435706384</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832447</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516989</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215089</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903942</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316717</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>163.251380417763</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443322</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>126.8145494864308</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>47.06871720446941</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772309</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593273</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681754</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.617537289473</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398233</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989344</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999603</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496631</v>
+        <v>422.0724450083125</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972015</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131894</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147859</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828703</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311175</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790297</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755934</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760549</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854133</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629786</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.262435706384</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832447</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516989</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215089</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903942</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316717</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>163.251380417763</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443322</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475443159</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297302</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>9.515040001583451</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348849</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772309</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593273</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681754</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.617537289473</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398233</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989344</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.4212598210011</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C2" t="n">
-        <v>810.3191910448285</v>
+        <v>829.3599495989887</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1550.105962577682</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>1290.883659894699</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1290.883659894699</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>886.0282053057326</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>870.9261459254474</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y2" t="n">
-        <v>866.6804262655048</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>637.7503761804292</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C4" t="n">
-        <v>465.1886646636541</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D4" t="n">
-        <v>299.3106718651768</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1599.273196734443</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>1353.393750312899</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1074.960749566004</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V4" t="n">
-        <v>1074.960749566004</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1074.960749566004</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5689948994163</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5689948994163</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.9964940415845</v>
+        <v>1599.490795190364</v>
       </c>
       <c r="C5" t="n">
-        <v>523.4148197788528</v>
+        <v>1161.348322373787</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>725.4385375482318</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>291.663792706527</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>978.5013801460308</v>
+        <v>2030.036085335214</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>1621.749961634868</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>946.3828988181522</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1138.201517537139</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1138.201517537139</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1597.442184185519</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>1159.299711368942</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>723.3899265433868</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E8" t="n">
-        <v>475.6030048059595</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>47.73557521516727</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>47.73557521516727</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>638.4633185028622</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1229.191061790557</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1819.918805078252</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2366.417591036847</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.778760758363</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.1268869422</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.1268869422</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2043.904584259217</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2043.904584259217</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2043.089533710654</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2027.987474330369</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.701350630023</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.9073202064601</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431024</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896556</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.2401555166093</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327709</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.4712273989548</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.79924837562486</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>73.79924837562486</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>73.79924837562486</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>73.79924837562486</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>73.79924837562486</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>73.79924837562486</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>462.3358766798661</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599637</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.341255472961</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534929</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681226</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070025</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862232</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1017.177079521826</v>
+        <v>987.3566790731575</v>
       </c>
       <c r="C10" t="n">
-        <v>844.6153680050505</v>
+        <v>814.7949675563824</v>
       </c>
       <c r="D10" t="n">
-        <v>678.7373752065732</v>
+        <v>648.9169747579051</v>
       </c>
       <c r="E10" t="n">
-        <v>508.9793714573105</v>
+        <v>479.1589710086424</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8889737242898</v>
+        <v>302.4519169703985</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2976987501174</v>
+        <v>136.8606419962262</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3955244404919</v>
+        <v>136.8606419962262</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.3152603798571</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0737149509927</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>827.2835967189537</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1286.767463899867</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.409842697908</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1871.079091923689</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.585985894031</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.778760758363</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.360939463735</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2206.119570761732</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1960.240124340187</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1681.807123593292</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1681.807123593292</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1681.807123593292</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.415368926705</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>1208.995698240813</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2132.36700728592</v>
+        <v>2280.954724499753</v>
       </c>
       <c r="C11" t="n">
-        <v>1694.224534469343</v>
+        <v>1842.812251683176</v>
       </c>
       <c r="D11" t="n">
-        <v>1258.314749643788</v>
+        <v>1406.90246685762</v>
       </c>
       <c r="E11" t="n">
-        <v>824.5400048020829</v>
+        <v>973.1277220159154</v>
       </c>
       <c r="F11" t="n">
-        <v>785.274954769842</v>
+        <v>545.2602924251232</v>
       </c>
       <c r="G11" t="n">
-        <v>383.877123393106</v>
+        <v>143.8624610483866</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632222</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="J11" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="K11" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="L11" t="n">
-        <v>456.0865483693543</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="M11" t="n">
-        <v>1613.134383579905</v>
+        <v>1164.310152461238</v>
       </c>
       <c r="N11" t="n">
-        <v>2738.865367016352</v>
+        <v>2290.041135897685</v>
       </c>
       <c r="O11" t="n">
-        <v>3719.045033586659</v>
+        <v>3270.220802467992</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.354908420055</v>
+        <v>4098.530677301388</v>
       </c>
       <c r="Q11" t="n">
-        <v>4547.354908420055</v>
+        <v>4645.029463259983</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173111</v>
+        <v>4645.029463259983</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.857099356948</v>
+        <v>4561.377589443819</v>
       </c>
       <c r="T11" t="n">
-        <v>4412.789872229987</v>
+        <v>4561.377589443819</v>
       </c>
       <c r="U11" t="n">
-        <v>4153.567569547004</v>
+        <v>4302.155286760836</v>
       </c>
       <c r="V11" t="n">
-        <v>3790.95061948083</v>
+        <v>3939.538336694663</v>
       </c>
       <c r="W11" t="n">
-        <v>3386.095164891864</v>
+        <v>3534.682882105696</v>
       </c>
       <c r="X11" t="n">
-        <v>2966.952701471174</v>
+        <v>3115.540418685007</v>
       </c>
       <c r="Y11" t="n">
-        <v>2558.666577770828</v>
+        <v>2707.25429498466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>599.0723342564925</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>492.6158730931347</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>397.525584239688</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>303.4051695666417</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>220.0213311828033</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>134.6362414489872</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="I12" t="n">
-        <v>94.33017946346223</v>
+        <v>118.9642624256573</v>
       </c>
       <c r="J12" t="n">
-        <v>94.33017946346223</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="K12" t="n">
-        <v>94.33017946346223</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>94.33017946346223</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>94.33017946346223</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>94.33017946346223</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>279.9350577366578</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>846.8620145570349</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>720.3762353362556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.0653855830777</v>
+        <v>943.3966263421311</v>
       </c>
       <c r="C13" t="n">
-        <v>790.5036740663027</v>
+        <v>770.834914825356</v>
       </c>
       <c r="D13" t="n">
-        <v>624.6256812678255</v>
+        <v>604.9569220268788</v>
       </c>
       <c r="E13" t="n">
-        <v>454.8676775185627</v>
+        <v>435.198918277616</v>
       </c>
       <c r="F13" t="n">
-        <v>278.1606234803189</v>
+        <v>258.4918642393723</v>
       </c>
       <c r="G13" t="n">
-        <v>234.2323537730877</v>
+        <v>92.90058926519987</v>
       </c>
       <c r="H13" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519966</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>179.4802744298895</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>454.2387290010251</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>872.4486107689862</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.989789366262</v>
+        <v>2691.321030125315</v>
       </c>
       <c r="T13" t="n">
-        <v>2465.110342944717</v>
+        <v>2445.44158370377</v>
       </c>
       <c r="U13" t="n">
-        <v>2186.677342197822</v>
+        <v>2167.008582956876</v>
       </c>
       <c r="V13" t="n">
-        <v>1899.721834068253</v>
+        <v>1880.053074827306</v>
       </c>
       <c r="W13" t="n">
-        <v>1627.695429654544</v>
+        <v>1608.026670413597</v>
       </c>
       <c r="X13" t="n">
-        <v>1382.303674987957</v>
+        <v>1362.63491574701</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.884004302065</v>
+        <v>1135.215245061118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.969386844472</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.826914027895</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.917129202339</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.142384360634</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F14" t="n">
-        <v>785.274954769842</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G14" t="n">
-        <v>383.877123393106</v>
+        <v>385.8293733226625</v>
       </c>
       <c r="H14" t="n">
-        <v>94.74696883632222</v>
+        <v>96.69921876587883</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="J14" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="K14" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="L14" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="M14" t="n">
-        <v>1251.378014674013</v>
+        <v>1164.248094099141</v>
       </c>
       <c r="N14" t="n">
-        <v>2377.10899811046</v>
+        <v>2289.979077535588</v>
       </c>
       <c r="O14" t="n">
-        <v>3357.288664680766</v>
+        <v>3270.158744105895</v>
       </c>
       <c r="P14" t="n">
-        <v>4185.598539514162</v>
+        <v>4098.468618939291</v>
       </c>
       <c r="Q14" t="n">
-        <v>4716.508973173111</v>
+        <v>4644.967404897885</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650941</v>
       </c>
       <c r="S14" t="n">
-        <v>4716.508973173111</v>
+        <v>4730.469595834778</v>
       </c>
       <c r="T14" t="n">
-        <v>4542.169949105556</v>
+        <v>4510.402368707817</v>
       </c>
       <c r="U14" t="n">
-        <v>4542.169949105556</v>
+        <v>4251.180066024834</v>
       </c>
       <c r="V14" t="n">
-        <v>4179.552999039382</v>
+        <v>3888.56311595866</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.697544450416</v>
+        <v>3483.707661369694</v>
       </c>
       <c r="X14" t="n">
-        <v>3355.555081029726</v>
+        <v>3064.565197949004</v>
       </c>
       <c r="Y14" t="n">
-        <v>2947.26895732938</v>
+        <v>2949.221207258935</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="I15" t="n">
-        <v>94.33017946346223</v>
+        <v>96.31862910882278</v>
       </c>
       <c r="J15" t="n">
-        <v>94.33017946346223</v>
+        <v>420.8769540750351</v>
       </c>
       <c r="K15" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L15" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M15" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N15" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O15" t="n">
-        <v>279.9350577366578</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1173.388340075344</v>
+        <v>946.77846646995</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.826628558569</v>
+        <v>774.2167549531749</v>
       </c>
       <c r="D16" t="n">
-        <v>834.9486357600913</v>
+        <v>608.3387621546976</v>
       </c>
       <c r="E16" t="n">
-        <v>665.1906320108285</v>
+        <v>438.5807584054349</v>
       </c>
       <c r="F16" t="n">
-        <v>488.4835779725847</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G16" t="n">
-        <v>322.8923029984124</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="H16" t="n">
-        <v>182.9901286887869</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288442</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968052</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.571968071634</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.33059936963</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T16" t="n">
-        <v>2284.451152948086</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U16" t="n">
-        <v>2284.451152948086</v>
+        <v>2029.388223425376</v>
       </c>
       <c r="V16" t="n">
-        <v>1997.495644818516</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W16" t="n">
-        <v>1838.01838414681</v>
+        <v>1611.408510541417</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.626629480222</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1365.206958794331</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2520.969386844471</v>
+        <v>2229.97950376375</v>
       </c>
       <c r="C17" t="n">
-        <v>2082.826914027894</v>
+        <v>1791.837030947173</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.917129202339</v>
+        <v>1355.927246121618</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.142384360634</v>
+        <v>922.1525012799129</v>
       </c>
       <c r="F17" t="n">
-        <v>785.274954769842</v>
+        <v>494.2850716891207</v>
       </c>
       <c r="G17" t="n">
-        <v>383.8771233931059</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="H17" t="n">
-        <v>94.74696883632214</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="J17" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="K17" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="L17" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.378014674013</v>
+        <v>1253.33026460357</v>
       </c>
       <c r="N17" t="n">
-        <v>2377.10899811046</v>
+        <v>2379.061248040016</v>
       </c>
       <c r="O17" t="n">
-        <v>3172.546247628064</v>
+        <v>3359.240914610323</v>
       </c>
       <c r="P17" t="n">
-        <v>4000.85612246146</v>
+        <v>4098.468618939291</v>
       </c>
       <c r="Q17" t="n">
-        <v>4547.354908420055</v>
+        <v>4644.967404897885</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650941</v>
       </c>
       <c r="S17" t="n">
-        <v>4632.857099356948</v>
+        <v>4730.469595834778</v>
       </c>
       <c r="T17" t="n">
-        <v>4412.789872229987</v>
+        <v>4510.402368707817</v>
       </c>
       <c r="U17" t="n">
-        <v>4153.567569547004</v>
+        <v>4251.180066024834</v>
       </c>
       <c r="V17" t="n">
-        <v>3790.95061948083</v>
+        <v>3888.56311595866</v>
       </c>
       <c r="W17" t="n">
-        <v>3386.095164891864</v>
+        <v>3483.707661369694</v>
       </c>
       <c r="X17" t="n">
-        <v>2966.952701471174</v>
+        <v>3064.565197949004</v>
       </c>
       <c r="Y17" t="n">
-        <v>2558.666577770828</v>
+        <v>2656.279074248658</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="I18" t="n">
-        <v>94.33017946346223</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J18" t="n">
-        <v>94.33017946346223</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K18" t="n">
-        <v>94.33017946346223</v>
+        <v>1127.637947590066</v>
       </c>
       <c r="L18" t="n">
-        <v>94.33017946346223</v>
+        <v>1127.637947590066</v>
       </c>
       <c r="M18" t="n">
-        <v>94.33017946346223</v>
+        <v>1127.637947590066</v>
       </c>
       <c r="N18" t="n">
-        <v>94.33017946346223</v>
+        <v>1127.637947590066</v>
       </c>
       <c r="O18" t="n">
-        <v>279.9350577366578</v>
+        <v>1127.637947590066</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1127.637947590066</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1154.884004302065</v>
+        <v>1086.680640779576</v>
       </c>
       <c r="C19" t="n">
-        <v>1000.826628558569</v>
+        <v>914.1189292628005</v>
       </c>
       <c r="D19" t="n">
-        <v>834.9486357600913</v>
+        <v>748.2409364643231</v>
       </c>
       <c r="E19" t="n">
-        <v>665.1906320108285</v>
+        <v>578.4829327150604</v>
       </c>
       <c r="F19" t="n">
-        <v>488.4835779725847</v>
+        <v>401.7758786768167</v>
       </c>
       <c r="G19" t="n">
-        <v>322.8923029984124</v>
+        <v>236.1846037026443</v>
       </c>
       <c r="H19" t="n">
-        <v>182.9901286887869</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288442</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968052</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2710.989789366261</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="T19" t="n">
-        <v>2465.110342944717</v>
+        <v>2467.062592874273</v>
       </c>
       <c r="U19" t="n">
-        <v>2186.677342197822</v>
+        <v>2188.629592127379</v>
       </c>
       <c r="V19" t="n">
-        <v>1899.721834068252</v>
+        <v>2023.33708926475</v>
       </c>
       <c r="W19" t="n">
-        <v>1627.695429654544</v>
+        <v>1751.310684851042</v>
       </c>
       <c r="X19" t="n">
-        <v>1382.303674987956</v>
+        <v>1505.918930184454</v>
       </c>
       <c r="Y19" t="n">
-        <v>1154.884004302065</v>
+        <v>1278.499259498563</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2132.36700728592</v>
+        <v>2522.504847401168</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.826914027895</v>
+        <v>2084.362374584591</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.917129202339</v>
+        <v>1648.452589759036</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.142384360634</v>
+        <v>1214.677844917331</v>
       </c>
       <c r="F20" t="n">
-        <v>785.274954769842</v>
+        <v>786.8104153265386</v>
       </c>
       <c r="G20" t="n">
-        <v>383.877123393106</v>
+        <v>385.4125839498025</v>
       </c>
       <c r="H20" t="n">
-        <v>94.74696883632222</v>
+        <v>96.28242939301879</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="J20" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="K20" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="L20" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="M20" t="n">
-        <v>1066.63559762131</v>
+        <v>1253.33026460357</v>
       </c>
       <c r="N20" t="n">
-        <v>2192.366581057758</v>
+        <v>2379.061248040016</v>
       </c>
       <c r="O20" t="n">
-        <v>3172.546247628064</v>
+        <v>3359.240914610323</v>
       </c>
       <c r="P20" t="n">
-        <v>4000.85612246146</v>
+        <v>4187.550789443719</v>
       </c>
       <c r="Q20" t="n">
-        <v>4547.354908420055</v>
+        <v>4734.049575402313</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650941</v>
       </c>
       <c r="S20" t="n">
-        <v>4632.857099356948</v>
+        <v>4814.121469650941</v>
       </c>
       <c r="T20" t="n">
-        <v>4412.789872229987</v>
+        <v>4594.05424252398</v>
       </c>
       <c r="U20" t="n">
-        <v>4153.567569547004</v>
+        <v>4334.831939840997</v>
       </c>
       <c r="V20" t="n">
-        <v>3790.95061948083</v>
+        <v>3972.214989774823</v>
       </c>
       <c r="W20" t="n">
-        <v>3386.095164891864</v>
+        <v>3567.359535185857</v>
       </c>
       <c r="X20" t="n">
-        <v>2966.952701471174</v>
+        <v>3148.217071765167</v>
       </c>
       <c r="Y20" t="n">
-        <v>2558.666577770828</v>
+        <v>2948.804417886075</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="I21" t="n">
-        <v>94.33017946346223</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J21" t="n">
-        <v>94.33017946346223</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K21" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L21" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M21" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N21" t="n">
-        <v>94.33017946346223</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O21" t="n">
-        <v>279.9350577366578</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1028.285642007991</v>
+        <v>784.3584455160028</v>
       </c>
       <c r="C22" t="n">
-        <v>855.7239304912159</v>
+        <v>667.4295997646901</v>
       </c>
       <c r="D22" t="n">
-        <v>834.9486357600913</v>
+        <v>501.5516069662128</v>
       </c>
       <c r="E22" t="n">
-        <v>665.1906320108285</v>
+        <v>501.5516069662128</v>
       </c>
       <c r="F22" t="n">
-        <v>488.4835779725847</v>
+        <v>324.844552927969</v>
       </c>
       <c r="G22" t="n">
-        <v>322.8923029984124</v>
+        <v>324.844552927969</v>
       </c>
       <c r="H22" t="n">
-        <v>182.9901286887869</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I22" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301883</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288442</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968052</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.571968071633</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="S22" t="n">
-        <v>2530.33059936963</v>
+        <v>2532.282849299187</v>
       </c>
       <c r="T22" t="n">
-        <v>2530.33059936963</v>
+        <v>2286.403402877642</v>
       </c>
       <c r="U22" t="n">
-        <v>2251.897598622735</v>
+        <v>2007.970402130747</v>
       </c>
       <c r="V22" t="n">
-        <v>1964.942090493166</v>
+        <v>1721.014894001177</v>
       </c>
       <c r="W22" t="n">
-        <v>1692.915686079457</v>
+        <v>1448.988489587469</v>
       </c>
       <c r="X22" t="n">
-        <v>1447.52393141287</v>
+        <v>1203.596734920882</v>
       </c>
       <c r="Y22" t="n">
-        <v>1220.104260726978</v>
+        <v>976.17706423499</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883916</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C25" t="n">
-        <v>811.7546776883916</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D25" t="n">
-        <v>645.8766848899143</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E25" t="n">
-        <v>476.1186811406515</v>
+        <v>303.5569696238772</v>
       </c>
       <c r="F25" t="n">
-        <v>476.1186811406515</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="G25" t="n">
-        <v>310.5274061664791</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>170.6252318568536</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>845.1948155628803</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>679.316822764403</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>509.5588190151403</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798643</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>920.0973401405612</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798643</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.915958859548</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6883,10 +6883,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
@@ -6898,7 +6898,7 @@
         <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
         <v>1144.575496066698</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581783</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581783</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581783</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581783</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>1254.614538886369</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2380.345522322816</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245844</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.68233307924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037835</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790891</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581783</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581783</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581783</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581783</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581783</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581783</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463119</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882663</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483847</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445148</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397469</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207265</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>376.202484921867</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581783</v>
+        <v>137.0287963856706</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239091</v>
+        <v>1294.076631596221</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675538</v>
+        <v>2419.807615032668</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3399.987281602975</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4228.297156436371</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4774.795942394965</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.950007148022</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109736</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760652</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855545</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567249</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756159</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113347</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190878</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708955</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581783</v>
+        <v>124.942673303418</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581783</v>
+        <v>449.5009982696303</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612181</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>825.0337389223201</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>670.9624159017199</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>513.0110819303343</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>348.1106976699677</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>194.3260924736726</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>175.7322795904079</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569477</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773807</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946391</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231791</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.26924350687</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526509</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923388</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999262</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355594</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386577</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034884</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399053</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510343</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602328</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483847</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445148</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397469</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207265</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.202484921867</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581783</v>
+        <v>137.0287963856706</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239091</v>
+        <v>1294.076631596221</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2419.807615032668</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3399.987281602975</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4228.297156436371</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4774.795942394965</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.950007148022</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109736</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760652</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855546</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567249</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756159</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113347</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190878</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708955</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>124.942673303418</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>124.942673303418</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>124.942673303418</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>124.942673303418</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>124.942673303418</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>124.942673303418</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>284.483878416156</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1095.290472309702</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>934.5354305708039</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>780.4641075502037</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>622.512773578818</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>457.6123893184514</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>303.8277841221562</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>175.7322795904079</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296044</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569477</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773807</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946391</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231791</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.26924350687</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526509</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2760.568187647746</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2526.495411004078</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2259.869080035061</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1984.720241683368</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1724.500507047537</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1490.915422158826</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1275.302421250812</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483847</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445147</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397469</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333641</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207263</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.202484921867</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>137.0287963856697</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239091</v>
+        <v>1294.076631596221</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2419.807615032667</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3399.987281602974</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4228.29715643637</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4774.795942394964</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.950007148021</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109735</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760651</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855544</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567248</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756159</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113347</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190878</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708955</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267479</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612177</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>825.0337389223198</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>670.9624159017196</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>513.0110819303341</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>348.1106976699674</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>194.3260924736722</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904079</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296042</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569477</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773806</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946391</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231791</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.26924350687</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526509</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923388</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999262</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2416.993719355594</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386577</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034884</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399053</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510343</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602328</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>394.8387895261749</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,16 +8377,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>596.6946901895908</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895909</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895908</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>20.56683810254208</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>392.4612407113548</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>596.6946901895908</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8620,7 +8620,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>166.3054331293345</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>365.4104736423153</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.231882016201</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1078.753196672851</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>536.2731653120691</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03656536949894473</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9176,10 +9176,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>803.4719692097005</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>746.6946508373412</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079276</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>80.88070126124057</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>963.663571639423</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.53514771990926</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.31828743765</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158828</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.53514771990926</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371091</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.53514771990837</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11382,16 +11382,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>384.7163557629661</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>235.7865999458608</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>45.27092102881198</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>290.0127116801768</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>111.4236523045819</v>
+        <v>139.592177662726</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>384.7163557629659</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.361237189827875</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>18.31929241554619</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>384.716355762967</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>206.7847351230422</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>55.07653710780777</v>
       </c>
       <c r="D22" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>20.09260206285813</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>161.9268490649755</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.4628789093292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.406674731999</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.515040001583451</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>98.89163473041552</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>108.4066747319992</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756757.0973833958</v>
+        <v>748338.7712267499</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756757.097383396</v>
+        <v>768253.1727386056</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756757.0973833959</v>
+        <v>768253.1727386056</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756757.0973833958</v>
+        <v>768253.1727386059</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817624.6628328731</v>
+        <v>803457.8158094623</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817624.6628328731</v>
+        <v>813656.9785376819</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817624.6628328731</v>
+        <v>813656.9785376819</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817624.6628328731</v>
+        <v>813656.9785376819</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>111652.6864991895</v>
+        <v>110410.6383777172</v>
       </c>
       <c r="F2" t="n">
-        <v>111652.6864991895</v>
+        <v>113348.8287647123</v>
       </c>
       <c r="G2" t="n">
-        <v>111652.6864991895</v>
+        <v>113348.8287647123</v>
       </c>
       <c r="H2" t="n">
-        <v>111652.6864991895</v>
+        <v>113348.8287647123</v>
       </c>
       <c r="I2" t="n">
         <v>118542.9564309043</v>
@@ -26344,16 +26344,16 @@
         <v>118542.9564309043</v>
       </c>
       <c r="M2" t="n">
-        <v>120633.1469753419</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="N2" t="n">
-        <v>120633.1469753418</v>
+        <v>120047.750931789</v>
       </c>
       <c r="O2" t="n">
-        <v>120633.1469753419</v>
+        <v>120047.750931789</v>
       </c>
       <c r="P2" t="n">
-        <v>120633.1469753418</v>
+        <v>120047.750931789</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212256</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405927</v>
+        <v>147420.5464117491</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12112.31405579405</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678313</v>
+        <v>19872.31248781287</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915299</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345134</v>
+        <v>123042.5210430558</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9350.882464078708</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129712.5371811796</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>759.4645886419041</v>
+        <v>751.0161437793233</v>
       </c>
       <c r="F4" t="n">
-        <v>759.4645886419042</v>
+        <v>771.001794134696</v>
       </c>
       <c r="G4" t="n">
-        <v>759.4645886419041</v>
+        <v>771.001794134696</v>
       </c>
       <c r="H4" t="n">
-        <v>759.4645886419041</v>
+        <v>771.0017941346961</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26442,22 +26442,22 @@
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>16466.62778780238</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780235</v>
+        <v>12085.9122599116</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780238</v>
+        <v>12085.9122599116</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780235</v>
+        <v>12085.9122599116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352712</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223129</v>
+        <v>70604.44784155174</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223129</v>
+        <v>73174.64633869431</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223129</v>
+        <v>73174.64633869431</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223129</v>
+        <v>73174.64633869431</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.6147260897</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.68928099071</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.68928099071</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.6892809907</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250151.0350913501</v>
+        <v>-290783.4823887112</v>
       </c>
       <c r="C6" t="n">
-        <v>-107959.7344316402</v>
+        <v>-67083.78380466641</v>
       </c>
       <c r="D6" t="n">
-        <v>-132538.2767614874</v>
+        <v>-67083.78380466643</v>
       </c>
       <c r="E6" t="n">
-        <v>-134699.2613222763</v>
+        <v>-108478.9554482254</v>
       </c>
       <c r="F6" t="n">
-        <v>39202.28551831635</v>
+        <v>27209.92970708225</v>
       </c>
       <c r="G6" t="n">
-        <v>39202.28551831632</v>
+        <v>39322.24376287631</v>
       </c>
       <c r="H6" t="n">
-        <v>39202.28551831633</v>
+        <v>39322.2437628763</v>
       </c>
       <c r="I6" t="n">
-        <v>13656.76977754603</v>
+        <v>20122.84860713366</v>
       </c>
       <c r="J6" t="n">
-        <v>-70996.07991066104</v>
+        <v>-134656.1876227596</v>
       </c>
       <c r="K6" t="n">
-        <v>40018.38543432915</v>
+        <v>39995.16109494652</v>
       </c>
       <c r="L6" t="n">
-        <v>-3614.20752482384</v>
+        <v>39995.1610949465</v>
       </c>
       <c r="M6" t="n">
-        <v>-114859.7155730636</v>
+        <v>-83047.35994810928</v>
       </c>
       <c r="N6" t="n">
-        <v>28650.90446144977</v>
+        <v>22473.76252632404</v>
       </c>
       <c r="O6" t="n">
-        <v>28650.90446144983</v>
+        <v>31824.64499040276</v>
       </c>
       <c r="P6" t="n">
-        <v>28650.90446144975</v>
+        <v>31824.64499040275</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895908</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1161.257365814996</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412735</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412735</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412735</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787005</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787005</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787005</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.3988326694864</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.432553103687</v>
+        <v>493.7421592071387</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42.27300159773998</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146749</v>
+        <v>74.73013597200998</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694864</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666645</v>
+        <v>493.7421592071387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694864</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.432553103687</v>
+        <v>493.7421592071387</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>42.27300159773998</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>72.25986202798427</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>253.4649560972573</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27546,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>61.36294431725518</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60.71782400246916</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>188.1214263578963</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>360.89278905067</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>164.9527410913843</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>197.1718905122115</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>184.1279448732348</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.5204897421708</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.14851852014975</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874771</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874794</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009839</v>
       </c>
     </row>
   </sheetData>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>394.8387895261749</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>596.6946901895908</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895909</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895908</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>20.56683810254208</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>392.4612407113548</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>596.6946901895908</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>166.3054331293345</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,10 +35413,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>365.4104736423153</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.231882016201</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1078.753196672851</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>536.2731653120691</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03656536949894473</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35893,13 +35893,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>803.4719692097005</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>746.6946508373412</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,10 +36127,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079276</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>80.88070126124057</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36294,7 +36294,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37008,7 +37008,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>963.663571639423</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.53514771990926</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.31828743765</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158828</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917907</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.222395576195</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881398</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446569</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756989</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313926</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209006</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.53514771990926</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371091</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917907</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.222395576195</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881398</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446569</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756989</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313926</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.53514771990837</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38102,16 +38102,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917906</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761949</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881398</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446569</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756989</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313926</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
